--- a/flask/app/static/files/solicitudes_entrantes.xlsx
+++ b/flask/app/static/files/solicitudes_entrantes.xlsx
@@ -374,7 +374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,7 +385,7 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
     <col width="31" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
@@ -425,19 +425,19 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
@@ -446,93 +446,93 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>44062.7699537037</v>
+        <v>44043.8446412037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>44062.7699537037</v>
+        <v>44043.56954861111</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>234</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>44062.7699537037</v>
+        <v>44043.56954861111</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19889608K</t>
+          <t>12345678</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Matías Severino</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
+          <t>Router TP-LONK TL-WN722N</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>44062.7699537037</v>
+        <v>44043.56954861111</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
@@ -546,80 +546,80 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Celular Samsung Galaxy S4</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>44043.8446412037</v>
+        <v>44043.56954861111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>197396156</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>nicolas  roman</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
+          <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>44043.56954861111</v>
+        <v>44036.79164351852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>197396156</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>nicolas  roman</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>Celular Samsung Galaxy S4</t>
+          <t>Placa Raspberry Raspberry Pi B+</t>
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>44043.56954861111</v>
+        <v>44036.79164351852</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>198422886</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Constanza Zúñiga</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -628,110 +628,6 @@
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>Matías Severino</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>197396156</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>nicolas  roman</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>44036.79164351852</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>197396156</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>nicolas  roman</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>44036.79164351852</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>198422886</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>Constanza Zúñiga</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
         <v>44036.76570601852</v>
       </c>
     </row>

--- a/flask/app/static/files/solicitudes_entrantes.xlsx
+++ b/flask/app/static/files/solicitudes_entrantes.xlsx
@@ -74,9 +74,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -374,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,9 +391,10 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="31" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -419,216 +426,44 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>Fecha de registro de solicitud</t>
+          <t>Código de equipo</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>Fecha de registro</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>12345678</t>
+          <t>19988806K</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Matías Severino</t>
+          <t>Sebastián Ignacio Toro Severino</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>44043.8446412037</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>Matías Severino</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>Matías Severino</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Matías Severino</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>12345678</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Matías Severino</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Celular Samsung Galaxy S4</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="n">
-        <v>44043.56954861111</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>197396156</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>nicolas  roman</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
           <t>Disco duro Toshiba Canvio 2 TB</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n">
-        <v>44036.79164351852</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>197396156</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>nicolas  roman</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>Placa Raspberry Raspberry Pi B+</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>44036.79164351852</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>198422886</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>Constanza Zúñiga</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>Router TP-LONK TL-WN722N</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="n">
-        <v>44036.76570601852</v>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>AA431</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>44064.60303240741</v>
       </c>
     </row>
   </sheetData>

--- a/flask/app/static/files/solicitudes_entrantes.xlsx
+++ b/flask/app/static/files/solicitudes_entrantes.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,8 +391,8 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="31" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
     <col width="16" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
   </cols>
@@ -437,10 +437,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
@@ -449,21 +449,83 @@
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Sebastián Ignacio Toro Severino</t>
+          <t>Sebastián Toro</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>Disco duro Toshiba Canvio 2 TB</t>
+          <t>Notebook Asus 636-5</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>AA431</t>
+          <t>ZZZZZZ</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
-        <v>44064.60303240741</v>
+        <v>44068.01424768518</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>276</v>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>19988806K</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Toro</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Prueba Prueba Prueba</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>AAA169</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>44068.01424768518</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>275</v>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19988806K</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Sebastián Toro</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Placa Raspberry Raspberry Pi B+</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>AAA192</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>44068.01424768518</v>
       </c>
     </row>
   </sheetData>
